--- a/Output/Descriptives/Missings_1h.xlsx
+++ b/Output/Descriptives/Missings_1h.xlsx
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.821917808219178</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.547945205479452</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="14">
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="26">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>19.72602739726027</v>
       </c>
     </row>
     <row r="32">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.273972602739726</v>
+        <v>8.493150684931507</v>
       </c>
     </row>
     <row r="38">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D43">
-        <v>0.819672131147541</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="44">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="D49">
-        <v>96.7123287671233</v>
+        <v>96.98630136986301</v>
       </c>
     </row>
     <row r="50">
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="116">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="122">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="D127">
-        <v>1.639344262295082</v>
+        <v>3.005464480874317</v>
       </c>
     </row>
     <row r="128">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="134">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="D139">
-        <v>11.23287671232877</v>
+        <v>13.15068493150685</v>
       </c>
     </row>
     <row r="140">
@@ -2968,7 +2968,7 @@
         </is>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="146">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="D157">
-        <v>24.93150684931507</v>
+        <v>25.47945205479452</v>
       </c>
     </row>
     <row r="158">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D163">
-        <v>9.863013698630137</v>
+        <v>11.23287671232877</v>
       </c>
     </row>
     <row r="164">
@@ -3400,7 +3400,7 @@
         </is>
       </c>
       <c r="D169">
-        <v>16.16438356164383</v>
+        <v>16.98630136986301</v>
       </c>
     </row>
     <row r="170">
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="200">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="206">
@@ -4156,7 +4156,7 @@
         </is>
       </c>
       <c r="D211">
-        <v>0.819672131147541</v>
+        <v>3.825136612021858</v>
       </c>
     </row>
     <row r="212">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D213">
-        <v>4.10958904109589</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="214">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="D217">
-        <v>13.97260273972603</v>
+        <v>15.61643835616438</v>
       </c>
     </row>
     <row r="218">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D223">
-        <v>54.7945205479452</v>
+        <v>55.61643835616439</v>
       </c>
     </row>
     <row r="224">
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="D229">
-        <v>1.917808219178082</v>
+        <v>2.73972602739726</v>
       </c>
     </row>
     <row r="230">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="D241">
-        <v>6.301369863013699</v>
+        <v>7.123287671232877</v>
       </c>
     </row>
     <row r="242">
@@ -4804,7 +4804,7 @@
         </is>
       </c>
       <c r="D247">
-        <v>0</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="248">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D253">
-        <v>9.315068493150685</v>
+        <v>10.13698630136986</v>
       </c>
     </row>
     <row r="254">
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="D265">
-        <v>0.821917808219178</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="266">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="284">
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="D289">
-        <v>0</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="290">
@@ -5668,7 +5668,7 @@
         </is>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>3.825136612021858</v>
       </c>
     </row>
     <row r="296">
@@ -5776,7 +5776,7 @@
         </is>
       </c>
       <c r="D301">
-        <v>0</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="302">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="D307">
-        <v>0</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="308">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D313">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="314">
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="D319">
-        <v>0.819672131147541</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="320">
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="D325">
-        <v>42.73972602739726</v>
+        <v>44.38356164383562</v>
       </c>
     </row>
     <row r="326">
@@ -6856,7 +6856,7 @@
         </is>
       </c>
       <c r="D361">
-        <v>0.273972602739726</v>
+        <v>80.82191780821918</v>
       </c>
     </row>
     <row r="362">
@@ -6964,7 +6964,7 @@
         </is>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="368">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D373">
-        <v>0</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="374">
@@ -7180,7 +7180,7 @@
         </is>
       </c>
       <c r="D379">
-        <v>0</v>
+        <v>2.73224043715847</v>
       </c>
     </row>
     <row r="380">
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="D380">
-        <v>44.93150684931507</v>
+        <v>46.84931506849315</v>
       </c>
     </row>
     <row r="381">
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="D385">
-        <v>0.273972602739726</v>
+        <v>46.84931506849315</v>
       </c>
     </row>
     <row r="386">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="D391">
-        <v>12.05479452054795</v>
+        <v>13.15068493150685</v>
       </c>
     </row>
     <row r="392">
@@ -7504,7 +7504,7 @@
         </is>
       </c>
       <c r="D397">
-        <v>2.465753424657534</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="398">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="D403">
-        <v>0.273224043715847</v>
+        <v>2.73224043715847</v>
       </c>
     </row>
     <row r="404">
@@ -7720,7 +7720,7 @@
         </is>
       </c>
       <c r="D409">
-        <v>4.383561643835616</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="410">
@@ -7828,7 +7828,7 @@
         </is>
       </c>
       <c r="D415">
-        <v>0.547945205479452</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="416">
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="D421">
-        <v>6.575342465753424</v>
+        <v>7.671232876712329</v>
       </c>
     </row>
     <row r="422">
@@ -8476,7 +8476,7 @@
         </is>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="452">
@@ -8584,7 +8584,7 @@
         </is>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="458">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D463">
-        <v>4.644808743169399</v>
+        <v>9.836065573770492</v>
       </c>
     </row>
     <row r="464">
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="D475">
-        <v>67.39726027397261</v>
+        <v>68.21917808219177</v>
       </c>
     </row>
     <row r="476">
@@ -9016,7 +9016,7 @@
         </is>
       </c>
       <c r="D481">
-        <v>0.547945205479452</v>
+        <v>1.917808219178082</v>
       </c>
     </row>
     <row r="482">
@@ -9124,7 +9124,7 @@
         </is>
       </c>
       <c r="D487">
-        <v>5.46448087431694</v>
+        <v>6.284153005464481</v>
       </c>
     </row>
     <row r="488">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D493">
-        <v>1.917808219178082</v>
+        <v>3.561643835616438</v>
       </c>
     </row>
     <row r="494">
@@ -9340,7 +9340,7 @@
         </is>
       </c>
       <c r="D499">
-        <v>0.547945205479452</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="500">
@@ -9448,7 +9448,7 @@
         </is>
       </c>
       <c r="D505">
-        <v>11.50684931506849</v>
+        <v>12.87671232876712</v>
       </c>
     </row>
     <row r="506">
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>17.53424657534246</v>
       </c>
     </row>
     <row r="530">
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>11.50684931506849</v>
       </c>
     </row>
     <row r="536">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="D541">
-        <v>0.273972602739726</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="542">
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="D547">
-        <v>0</v>
+        <v>1.912568306010929</v>
       </c>
     </row>
     <row r="548">
@@ -10312,7 +10312,7 @@
         </is>
       </c>
       <c r="D553">
-        <v>3.561643835616438</v>
+        <v>5.47945205479452</v>
       </c>
     </row>
     <row r="554">
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="D559">
-        <v>1.095890410958904</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="560">
@@ -10528,7 +10528,7 @@
         </is>
       </c>
       <c r="D565">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="566">
@@ -10636,7 +10636,7 @@
         </is>
       </c>
       <c r="D571">
-        <v>0.819672131147541</v>
+        <v>3.278688524590164</v>
       </c>
     </row>
     <row r="572">
@@ -10744,7 +10744,7 @@
         </is>
       </c>
       <c r="D577">
-        <v>3.287671232876712</v>
+        <v>4.10958904109589</v>
       </c>
     </row>
     <row r="578">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="D583">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="584">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D589">
-        <v>12.87671232876712</v>
+        <v>14.24657534246575</v>
       </c>
     </row>
     <row r="590">
@@ -11068,7 +11068,7 @@
         </is>
       </c>
       <c r="D595">
-        <v>1.095890410958904</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="596">
@@ -11500,7 +11500,7 @@
         </is>
       </c>
       <c r="D619">
-        <v>0.273972602739726</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="620">
@@ -11608,7 +11608,7 @@
         </is>
       </c>
       <c r="D625">
-        <v>0</v>
+        <v>1.36986301369863</v>
       </c>
     </row>
     <row r="626">
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="D631">
-        <v>0</v>
+        <v>4.644808743169399</v>
       </c>
     </row>
     <row r="632">
@@ -11824,7 +11824,7 @@
         </is>
       </c>
       <c r="D637">
-        <v>3.835616438356165</v>
+        <v>25.75342465753425</v>
       </c>
     </row>
     <row r="638">
@@ -11932,7 +11932,7 @@
         </is>
       </c>
       <c r="D643">
-        <v>7.945205479452055</v>
+        <v>14.79452054794521</v>
       </c>
     </row>
     <row r="644">
@@ -12040,7 +12040,7 @@
         </is>
       </c>
       <c r="D649">
-        <v>0.821917808219178</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="650">
@@ -12256,7 +12256,7 @@
         </is>
       </c>
       <c r="D661">
-        <v>3.287671232876712</v>
+        <v>5.753424657534246</v>
       </c>
     </row>
     <row r="662">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D667">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="668">
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="D673">
-        <v>8.493150684931507</v>
+        <v>10.13698630136986</v>
       </c>
     </row>
     <row r="674">
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="D679">
-        <v>1.36986301369863</v>
+        <v>2.191780821917808</v>
       </c>
     </row>
     <row r="680">
@@ -13012,7 +13012,7 @@
         </is>
       </c>
       <c r="D703">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="704">
@@ -13120,7 +13120,7 @@
         </is>
       </c>
       <c r="D709">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="710">
@@ -13228,7 +13228,7 @@
         </is>
       </c>
       <c r="D715">
-        <v>0</v>
+        <v>1.092896174863388</v>
       </c>
     </row>
     <row r="716">
@@ -13336,7 +13336,7 @@
         </is>
       </c>
       <c r="D721">
-        <v>0</v>
+        <v>2.465753424657534</v>
       </c>
     </row>
     <row r="722">
@@ -13444,7 +13444,7 @@
         </is>
       </c>
       <c r="D727">
-        <v>27.12328767123288</v>
+        <v>29.58904109589041</v>
       </c>
     </row>
     <row r="728">
@@ -13552,7 +13552,7 @@
         </is>
       </c>
       <c r="D733">
-        <v>0</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="734">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D745">
-        <v>14.24657534246575</v>
+        <v>15.34246575342466</v>
       </c>
     </row>
     <row r="746">
@@ -13984,7 +13984,7 @@
         </is>
       </c>
       <c r="D757">
-        <v>10.41095890410959</v>
+        <v>11.23287671232877</v>
       </c>
     </row>
     <row r="758">
@@ -14200,7 +14200,7 @@
         </is>
       </c>
       <c r="D769">
-        <v>1.095890410958904</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="770">
@@ -14416,7 +14416,7 @@
         </is>
       </c>
       <c r="D781">
-        <v>0</v>
+        <v>0.547945205479452</v>
       </c>
     </row>
     <row r="782">
@@ -14524,7 +14524,7 @@
         </is>
       </c>
       <c r="D787">
-        <v>0.273972602739726</v>
+        <v>80.27397260273973</v>
       </c>
     </row>
     <row r="788">
@@ -14632,7 +14632,7 @@
         </is>
       </c>
       <c r="D793">
-        <v>0</v>
+        <v>12.05479452054795</v>
       </c>
     </row>
     <row r="794">
@@ -14740,7 +14740,7 @@
         </is>
       </c>
       <c r="D799">
-        <v>0</v>
+        <v>3.825136612021858</v>
       </c>
     </row>
     <row r="800">
@@ -14848,7 +14848,7 @@
         </is>
       </c>
       <c r="D805">
-        <v>2.191780821917808</v>
+        <v>9.863013698630137</v>
       </c>
     </row>
     <row r="806">
@@ -14956,7 +14956,7 @@
         </is>
       </c>
       <c r="D811">
-        <v>6.027397260273973</v>
+        <v>8.767123287671232</v>
       </c>
     </row>
     <row r="812">
@@ -15064,7 +15064,7 @@
         </is>
       </c>
       <c r="D817">
-        <v>0</v>
+        <v>3.287671232876712</v>
       </c>
     </row>
     <row r="818">
@@ -15172,7 +15172,7 @@
         </is>
       </c>
       <c r="D823">
-        <v>93.44262295081968</v>
+        <v>93.71584699453553</v>
       </c>
     </row>
     <row r="824">
@@ -15388,7 +15388,7 @@
         </is>
       </c>
       <c r="D835">
-        <v>3.561643835616438</v>
+        <v>4.383561643835616</v>
       </c>
     </row>
     <row r="836">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="D841">
-        <v>10.68493150684932</v>
+        <v>12.05479452054795</v>
       </c>
     </row>
     <row r="842">
@@ -15604,7 +15604,7 @@
         </is>
       </c>
       <c r="D847">
-        <v>4.657534246575342</v>
+        <v>4.931506849315069</v>
       </c>
     </row>
     <row r="848">
@@ -15820,7 +15820,7 @@
         </is>
       </c>
       <c r="D859">
-        <v>0.546448087431694</v>
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="860">
@@ -16036,7 +16036,7 @@
         </is>
       </c>
       <c r="D871">
-        <v>0</v>
+        <v>1.643835616438356</v>
       </c>
     </row>
     <row r="872">
@@ -16144,7 +16144,7 @@
         </is>
       </c>
       <c r="D877">
-        <v>0</v>
+        <v>1.095890410958904</v>
       </c>
     </row>
     <row r="878">
@@ -16252,7 +16252,7 @@
         </is>
       </c>
       <c r="D883">
-        <v>61.47540983606557</v>
+        <v>62.84153005464481</v>
       </c>
     </row>
     <row r="884">
